--- a/Data Files/DF_edit_user.xlsx
+++ b/Data Files/DF_edit_user.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>%%%%%%%%</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;</t>
   </si>
   <si>
     <t>##########</t>
@@ -78,7 +81,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +95,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,154 +537,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,10 +1004,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1185,16 +1181,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("The user “",A13,"” was changed successfully.")</f>
         <v>The user “baduykiemthu” was changed successfully.</v>
       </c>
     </row>
@@ -1206,13 +1202,31 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="str">
+        <f>CONCATENATE("The user “",A14,"” was changed successfully.")</f>
+        <v>The user “baduykiemthu” was changed successfully.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="str">
+        <f>CONCATENATE("The user “",A15,"” was changed successfully.")</f>
         <v>The user “baduykiemthu” was changed successfully.</v>
       </c>
     </row>
@@ -1224,8 +1238,9 @@
     <hyperlink ref="D5" r:id="rId1" display="nbduy@ctuet.edu.vn"/>
     <hyperlink ref="D11" r:id="rId1" display="nbduy@ctuet.edu.vn"/>
     <hyperlink ref="D12" r:id="rId1" display="nbduy@ctuet.edu.vn"/>
+    <hyperlink ref="D14" r:id="rId1" display="nbduy@ctuet.edu.vn"/>
+    <hyperlink ref="D15" r:id="rId2" display=".com@baduymailctut#"/>
     <hyperlink ref="D13" r:id="rId1" display="nbduy@ctuet.edu.vn"/>
-    <hyperlink ref="D14" r:id="rId2" display=".com@baduymailctut#"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
